--- a/SWI/5. semester/Analogová a číslicová technika/labaky/bipolarni_tranzistor/Zošit1.xlsx
+++ b/SWI/5. semester/Analogová a číslicová technika/labaky/bipolarni_tranzistor/Zošit1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bucka\Documents\GitHub\Simon\SWI\5. semester\Analogová a číslicová technika\labaky\bipolarni_tranzistor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B9CF43-8842-45DF-9994-57AA125A5619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D0B161-AD19-49C1-A9D2-9BD024027100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3B0E0CF-FE23-49DB-A301-118B31710BB9}"/>
+    <workbookView xWindow="5412" yWindow="1008" windowWidth="17304" windowHeight="11328" xr2:uid="{D3B0E0CF-FE23-49DB-A301-118B31710BB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <r>
       <t>I</t>
@@ -197,6 +197,63 @@
   <si>
     <t>20uA</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=20uA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=40uA</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -286,10 +343,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -313,21 +370,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="sk-SK"/>
-              <a:t>20uA</a:t>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Výstupní charakteristika</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.44816666666666666"/>
-          <c:y val="2.8011204481792718E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -368,11 +419,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hárok1!$L$2</c:f>
+              <c:f>Hárok1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ic[mA]</c:v>
+                  <c:v>IB=20uA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -380,9 +431,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -393,15 +442,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -411,9 +456,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -425,6 +468,42 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Hárok1!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Hárok1!$K$3:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -455,42 +534,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.6500000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hárok1!$L$3:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -499,6 +542,123 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2B1-436E-8936-A1A6922D1A15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hárok1!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IB=40uA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hárok1!$L$15:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hárok1!$K$15:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45BD-4B8C-85A9-F16A0A6D4286}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -517,8 +677,8 @@
         <c:axId val="535452640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="2"/>
+          <c:max val="6.5"/>
+          <c:min val="2.7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -757,6 +917,41 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1291,29 +1486,1376 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Vstupní charakteristika</a:t>
+            </a:r>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Uce = 1 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hárok1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hárok1!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EC6-4020-A5E4-293F5527577C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Uce = 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hárok1!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hárok1!$F$15:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1EC6-4020-A5E4-293F5527577C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="769412255"/>
+        <c:axId val="769416095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="769412255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>b</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>[mA]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="sk-SK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sk-SK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="769416095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="769416095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>be</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>[V]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="sk-SK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sk-SK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="769412255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Převodová charakteristika</a:t>
+            </a:r>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Uce=1V</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hárok1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hárok1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-960D-4F03-9622-CE96297330F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Uce=2V</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hárok1!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hárok1!$E$15:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-960D-4F03-9622-CE96297330F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="813877823"/>
+        <c:axId val="813869663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="813877823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>b</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>[mA]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="sk-SK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sk-SK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="813869663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="813869663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>[mA]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="sk-SK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sk-SK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="813877823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
   <cs:variation>
-    <a:tint val="88500"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="55000"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="75000"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="98500"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="30000"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="60000"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="80000"/>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -1345,6 +2887,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1862,6 +3484,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2382,15 +5036,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>494347</xdr:colOff>
+      <xdr:colOff>488537</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>164782</xdr:rowOff>
+      <xdr:rowOff>163560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>189547</xdr:colOff>
+      <xdr:colOff>183737</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>140017</xdr:rowOff>
+      <xdr:rowOff>131175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2418,15 +5072,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>498157</xdr:colOff>
+      <xdr:colOff>527021</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2857</xdr:rowOff>
+      <xdr:rowOff>66395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>193357</xdr:colOff>
+      <xdr:colOff>222221</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>21907</xdr:rowOff>
+      <xdr:rowOff>81635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2446,6 +5100,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558067</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>277166</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>26632</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A4A09F8-3A21-2343-C829-0DBC3CDBAA31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>524394</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>253018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108316</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA45992B-515B-B88D-A979-FD658EEE1998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2751,15 +5477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D56B8B-948E-4805-B509-664500C2B578}">
-  <dimension ref="B1:M24"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="88" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2775,7 +5501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2800,8 +5526,11 @@
       <c r="L2" t="s">
         <v>1</v>
       </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0.1</v>
       </c>
@@ -2827,7 +5556,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0.2</v>
       </c>
@@ -2853,7 +5582,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0.3</v>
       </c>
@@ -2879,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0.4</v>
       </c>
@@ -2905,7 +5634,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0.5</v>
       </c>
@@ -2931,7 +5660,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0.6</v>
       </c>
@@ -2957,7 +5686,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0.7</v>
       </c>
@@ -2983,7 +5712,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0.8</v>
       </c>
@@ -3008,8 +5737,11 @@
       <c r="L10">
         <v>3.12</v>
       </c>
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0.9</v>
       </c>
@@ -3035,7 +5767,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -3052,7 +5784,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3060,7 +5792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -3088,8 +5820,11 @@
       <c r="L14" t="s">
         <v>1</v>
       </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0.1</v>
       </c>
@@ -3115,7 +5850,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0.2</v>
       </c>
@@ -3338,6 +6073,417 @@
       </c>
       <c r="F24">
         <v>0.98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.1</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.2</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.2</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.3</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.3</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0.4</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.4</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.5</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O47">
+        <v>2.98</v>
+      </c>
+      <c r="Q47">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="R47">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.16</v>
+      </c>
+      <c r="E48">
+        <v>0.6</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0.18</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2.597</v>
+      </c>
+      <c r="O48">
+        <v>2.98</v>
+      </c>
+      <c r="Q48">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0.7</v>
+      </c>
+      <c r="B49">
+        <v>0.04</v>
+      </c>
+      <c r="C49">
+        <v>4.74</v>
+      </c>
+      <c r="E49">
+        <v>0.7</v>
+      </c>
+      <c r="F49">
+        <v>0.04</v>
+      </c>
+      <c r="G49">
+        <v>5.2</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2.883</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="R49">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="B50">
+        <v>0.3</v>
+      </c>
+      <c r="C50">
+        <v>8.08</v>
+      </c>
+      <c r="E50">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F50">
+        <v>0.22</v>
+      </c>
+      <c r="G50">
+        <v>16.12</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="O50">
+        <v>3.04</v>
+      </c>
+      <c r="Q50">
+        <v>1.4</v>
+      </c>
+      <c r="R50">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="B51">
+        <v>0.66</v>
+      </c>
+      <c r="C51">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E51">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.6</v>
+      </c>
+      <c r="G51">
+        <v>16.28</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="O51">
+        <v>3.04</v>
+      </c>
+      <c r="Q51">
+        <v>1.9</v>
+      </c>
+      <c r="R51">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="B52">
+        <v>1.04</v>
+      </c>
+      <c r="C52">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E52">
+        <v>0.98</v>
+      </c>
+      <c r="F52">
+        <v>0.98</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0.16</v>
+      </c>
+      <c r="N52">
+        <v>3.746</v>
+      </c>
+      <c r="O52">
+        <v>3.08</v>
+      </c>
+      <c r="Q52">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="R52">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>0.04</v>
+      </c>
+      <c r="K53">
+        <v>4.74</v>
+      </c>
+      <c r="N53">
+        <v>4.04</v>
+      </c>
+      <c r="O53">
+        <v>3.1</v>
+      </c>
+      <c r="Q53">
+        <v>2.93</v>
+      </c>
+      <c r="R53">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>0.3</v>
+      </c>
+      <c r="K54">
+        <v>8.08</v>
+      </c>
+      <c r="N54">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O54">
+        <v>3.12</v>
+      </c>
+      <c r="Q54">
+        <v>3.48</v>
+      </c>
+      <c r="R54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>0.66</v>
+      </c>
+      <c r="K55">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="N55">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O55">
+        <v>3.14</v>
+      </c>
+      <c r="Q55">
+        <v>4.05</v>
+      </c>
+      <c r="R55">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>1.04</v>
+      </c>
+      <c r="K56">
+        <v>8.1199999999999992</v>
       </c>
     </row>
   </sheetData>
